--- a/src/main/resources/tempFile/用户添加模板.xlsx
+++ b/src/main/resources/tempFile/用户添加模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\proj\back\stvh\src\main\resources\tempFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418B688-E237-4E8E-8E32-D752FC41A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0817A-1B67-4138-BF65-F49F61CEC367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3435" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="3570" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,11 +422,12 @@
     <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="6" width="20.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="20.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,41 +438,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -476,10 +484,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{4F110DAA-81B8-49C7-ACD7-16369CCBB3A6}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G61" xr:uid="{C3B43502-03F3-4E48-9757-A14AD358DB97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H61" xr:uid="{C3B43502-03F3-4E48-9757-A14AD358DB97}">
       <formula1>"ADMIN,TEACHER,STUDENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C327D8A7-2E3A-4532-AB04-1CD654C4B3BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{C327D8A7-2E3A-4532-AB04-1CD654C4B3BC}">
       <formula1>"一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
     </dataValidation>
   </dataValidations>
